--- a/Electronic Design/Core64 LA v1.3 KiCAD 6/C64_LA_V1.3 Manufacturing by ELECROW/Core64 LA v1.3_BOM_sub-kit_Assembly.xlsx
+++ b/Electronic Design/Core64 LA v1.3 KiCAD 6/C64_LA_V1.3 Manufacturing by ELECROW/Core64 LA v1.3_BOM_sub-kit_Assembly.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrewgeppert/Dropbox/Electronics/Core 64 Interactive Badge/Core-64-Interactive-Core-Memory-Badge/Electronic Design/Core64 LA v1.3 KiCAD 6/C64_LA_V1.3 BOM CPL ELECROW/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrewgeppert/Dropbox/Electronics/Core 64 Interactive Badge/Core-64-Interactive-Core-Memory-Badge/Electronic Design/Core64 LA v1.3 KiCAD 6/C64_LA_V1.3 Manufacturing by ELECROW/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2167FC89-E0EF-1149-A10B-00BF193F3191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{798FFAB2-E0D6-3843-A396-80A39258DD66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -85,9 +85,6 @@
     <t>C</t>
   </si>
   <si>
-    <t>Bag, Antistatic, Closure, Clear Blue, 5x8 inch</t>
-  </si>
-  <si>
     <t>Desco</t>
   </si>
   <si>
@@ -205,6 +202,9 @@
   </si>
   <si>
     <t>Tape, securing diffuser grid to PCBA for shipping (10-20mm wide)</t>
+  </si>
+  <si>
+    <t>Bag, Antistatic, Closure, Clear or Blue, 5x8 inch</t>
   </si>
 </sst>
 </file>
@@ -743,7 +743,7 @@
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="156" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -765,7 +765,7 @@
   <sheetData>
     <row r="1" spans="1:12" s="5" customFormat="1" ht="35" thickBot="1">
       <c r="A1" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B1" s="19" t="s">
         <v>3</v>
@@ -780,7 +780,7 @@
         <v>7</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G1" s="19" t="s">
         <v>5</v>
@@ -789,16 +789,16 @@
         <v>6</v>
       </c>
       <c r="I1" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J1" s="18" t="s">
         <v>1</v>
       </c>
       <c r="K1" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="L1" s="18" t="s">
         <v>50</v>
-      </c>
-      <c r="L1" s="18" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="2" customFormat="1" ht="17">
@@ -888,7 +888,7 @@
         <v>14</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>17</v>
@@ -906,7 +906,7 @@
         <v>2</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K4" s="9" t="s">
         <v>12</v>
@@ -926,10 +926,10 @@
         <v>20</v>
       </c>
       <c r="D5" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="8" t="s">
         <v>21</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>22</v>
       </c>
       <c r="F5" s="8">
         <v>13881</v>
@@ -944,10 +944,10 @@
         <v>2</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L5" s="9" t="s">
         <v>18</v>
@@ -955,7 +955,7 @@
     </row>
     <row r="6" spans="1:12" s="2" customFormat="1" ht="17">
       <c r="A6" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6" s="6">
         <v>3</v>
@@ -964,7 +964,7 @@
         <v>14</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>12</v>
@@ -976,7 +976,7 @@
         <v>10</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>2</v>
@@ -993,7 +993,7 @@
     </row>
     <row r="7" spans="1:12" s="2" customFormat="1" ht="17">
       <c r="A7" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" s="6">
         <v>2</v>
@@ -1002,7 +1002,7 @@
         <v>9</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>12</v>
@@ -1031,7 +1031,7 @@
     </row>
     <row r="8" spans="1:12" s="2" customFormat="1" ht="17">
       <c r="A8" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B8" s="6">
         <v>2</v>
@@ -1040,7 +1040,7 @@
         <v>14</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>12</v>
@@ -1069,7 +1069,7 @@
     </row>
     <row r="9" spans="1:12" s="2" customFormat="1" ht="136">
       <c r="A9" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9" s="6">
         <v>3</v>
@@ -1078,13 +1078,13 @@
         <v>14</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="8" t="s">
         <v>29</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>30</v>
       </c>
       <c r="G9" s="6">
         <v>1</v>
@@ -1096,10 +1096,10 @@
         <v>2</v>
       </c>
       <c r="J9" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L9" s="9" t="s">
         <v>18</v>
@@ -1107,7 +1107,7 @@
     </row>
     <row r="10" spans="1:12" s="2" customFormat="1" ht="17">
       <c r="A10" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B10" s="6">
         <v>3</v>
@@ -1116,7 +1116,7 @@
         <v>14</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>12</v>
@@ -1140,12 +1140,12 @@
         <v>12</v>
       </c>
       <c r="L10" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="2" customFormat="1" ht="85">
       <c r="A11" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B11" s="6">
         <v>3</v>
@@ -1154,10 +1154,10 @@
         <v>14</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F11" s="8">
         <v>2482</v>
@@ -1172,10 +1172,10 @@
         <v>2</v>
       </c>
       <c r="J11" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="K11" s="12" t="s">
         <v>35</v>
-      </c>
-      <c r="K11" s="12" t="s">
-        <v>36</v>
       </c>
       <c r="L11" s="9" t="s">
         <v>18</v>
@@ -1183,7 +1183,7 @@
     </row>
     <row r="12" spans="1:12" s="2" customFormat="1" ht="60">
       <c r="A12" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B12" s="6">
         <v>3</v>
@@ -1192,7 +1192,7 @@
         <v>14</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>12</v>
@@ -1210,7 +1210,7 @@
         <v>2</v>
       </c>
       <c r="J12" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K12" s="9" t="s">
         <v>12</v>
@@ -1221,7 +1221,7 @@
     </row>
     <row r="13" spans="1:12" s="2" customFormat="1" ht="60">
       <c r="A13" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B13" s="6">
         <v>3</v>
@@ -1230,7 +1230,7 @@
         <v>14</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>12</v>
@@ -1248,10 +1248,10 @@
         <v>2</v>
       </c>
       <c r="J13" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K13" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L13" s="9" t="s">
         <v>18</v>

--- a/Electronic Design/Core64 LA v1.3 KiCAD 6/C64_LA_V1.3 Manufacturing by ELECROW/Core64 LA v1.3_BOM_sub-kit_Assembly.xlsx
+++ b/Electronic Design/Core64 LA v1.3 KiCAD 6/C64_LA_V1.3 Manufacturing by ELECROW/Core64 LA v1.3_BOM_sub-kit_Assembly.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andrewgeppert/Dropbox/Electronics/Core 64 Interactive Badge/Core-64-Interactive-Core-Memory-Badge/Electronic Design/Core64 LA v1.3 KiCAD 6/C64_LA_V1.3 Manufacturing by ELECROW/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ageppert/Dropbox/Electronics/Core 64 Interactive Badge/Core-64-Interactive-Core-Memory-Badge/Electronic Design/Core64 LA v1.3 KiCAD 6/C64_LA_V1.3 Manufacturing by ELECROW/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{798FFAB2-E0D6-3843-A396-80A39258DD66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{316BDEE2-FFDD-1143-B95B-49251AB81336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="61">
   <si>
     <t>Description</t>
   </si>
@@ -205,6 +205,9 @@
   </si>
   <si>
     <t>Bag, Antistatic, Closure, Clear or Blue, 5x8 inch</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/olimex-ltd/KAPTON-TAPE10MM/19204468</t>
   </si>
 </sst>
 </file>
@@ -743,7 +746,7 @@
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="156" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -953,7 +956,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="2" customFormat="1" ht="17">
+    <row r="6" spans="1:12" s="2" customFormat="1" ht="45">
       <c r="A6" s="11" t="s">
         <v>40</v>
       </c>
@@ -981,8 +984,8 @@
       <c r="I6" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="J6" s="9" t="s">
-        <v>12</v>
+      <c r="J6" s="20" t="s">
+        <v>60</v>
       </c>
       <c r="K6" s="9" t="s">
         <v>12</v>
@@ -1270,6 +1273,7 @@
     <hyperlink ref="J12" r:id="rId8" xr:uid="{7B075D44-5647-444E-A258-BE60F2768E83}"/>
     <hyperlink ref="J13" r:id="rId9" xr:uid="{52F4E0F8-3D01-8647-9CA3-24374433F64D}"/>
     <hyperlink ref="K13" r:id="rId10" xr:uid="{C4FFCD72-791C-D248-B0E3-BC7F3C3B7147}"/>
+    <hyperlink ref="J6" r:id="rId11" xr:uid="{13E0BA90-E061-8C44-8DF9-A60FD89405E5}"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
